--- a/images/attention_chart.xlsx
+++ b/images/attention_chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svenk\bachelor_thesis\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9D8339F9-72CA-4AD5-8541-E625F4005C0D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6407E795-E56B-4A8B-B375-1DC44D2CA25E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="eol_13_unreverse_input" localSheetId="0">Tabelle1!$B$2:$C$301</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -333,7 +333,7 @@
                   <c:v>5.7859999999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>66.52300000000001</c:v>
+                  <c:v>7.9910000000000014</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5.3209999999999997</c:v>
@@ -342,13 +342,13 @@
                   <c:v>4.2430000000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.154000000000003</c:v>
+                  <c:v>6.8389999999999986</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5.657</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>25.190999999999999</c:v>
+                  <c:v>6.8489999999999993</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>3.85</c:v>
@@ -1124,9 +1124,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2049,22 +2047,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" customWidth="1"/>
+    <col min="10" max="10" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2087,7 +2085,7 @@
         <v>without attention reversed</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>667.1</v>
       </c>
@@ -2113,7 +2111,7 @@
         <v>671.62</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>585.24</v>
       </c>
@@ -2139,7 +2137,7 @@
         <v>538.73599999999999</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>494.51</v>
       </c>
@@ -2165,7 +2163,7 @@
         <v>453.01400000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>457.31</v>
       </c>
@@ -2191,7 +2189,7 @@
         <v>430.18599999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>513.96</v>
       </c>
@@ -2217,7 +2215,7 @@
         <v>386.85600000000005</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>456.86</v>
       </c>
@@ -2243,7 +2241,7 @@
         <v>353.92800000000005</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>470.24</v>
       </c>
@@ -2269,7 +2267,7 @@
         <v>386.41399999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>439.31</v>
       </c>
@@ -2295,7 +2293,7 @@
         <v>334.16499999999996</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>436.36</v>
       </c>
@@ -2321,7 +2319,7 @@
         <v>304.35599999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>471.13</v>
       </c>
@@ -2347,7 +2345,7 @@
         <v>292.61</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>460.33</v>
       </c>
@@ -2373,7 +2371,7 @@
         <v>272.82799999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>433.06</v>
       </c>
@@ -2399,7 +2397,7 @@
         <v>279.07</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>368.59</v>
       </c>
@@ -2425,7 +2423,7 @@
         <v>278.93399999999997</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>412.68</v>
       </c>
@@ -2451,7 +2449,7 @@
         <v>283.71800000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>419.11</v>
       </c>
@@ -2477,7 +2475,7 @@
         <v>250.34200000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>425.74</v>
       </c>
@@ -2503,7 +2501,7 @@
         <v>262.69500000000005</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>382.77</v>
       </c>
@@ -2529,7 +2527,7 @@
         <v>264.87400000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>384.77</v>
       </c>
@@ -2555,7 +2553,7 @@
         <v>263.35599999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>378.54</v>
       </c>
@@ -2581,7 +2579,7 @@
         <v>246.785</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>382.53</v>
       </c>
@@ -2607,7 +2605,7 @@
         <v>251.90799999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>388</v>
       </c>
@@ -2633,7 +2631,7 @@
         <v>256.18700000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>345.67</v>
       </c>
@@ -2659,7 +2657,7 @@
         <v>242.17000000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>323.07</v>
       </c>
@@ -2685,7 +2683,7 @@
         <v>243.48599999999996</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>322.41000000000003</v>
       </c>
@@ -2700,7 +2698,7 @@
       </c>
       <c r="H25">
         <f>SUM(B222:B231)/10</f>
-        <v>66.52300000000001</v>
+        <v>7.9910000000000014</v>
       </c>
       <c r="I25">
         <f t="shared" ref="I25:J25" si="23">SUM(C222:C231)/10</f>
@@ -2711,7 +2709,7 @@
         <v>231.96300000000002</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>354.34</v>
       </c>
@@ -2737,7 +2735,7 @@
         <v>230.035</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>352.99</v>
       </c>
@@ -2763,7 +2761,7 @@
         <v>240.54400000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>310.95</v>
       </c>
@@ -2778,7 +2776,7 @@
       </c>
       <c r="H28">
         <f>SUM(B252:B261)/10</f>
-        <v>26.154000000000003</v>
+        <v>6.8389999999999986</v>
       </c>
       <c r="I28">
         <f t="shared" ref="I28:J28" si="26">SUM(C252:C261)/10</f>
@@ -2789,7 +2787,7 @@
         <v>233.51999999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>305.23</v>
       </c>
@@ -2815,7 +2813,7 @@
         <v>214.804</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>316.76</v>
       </c>
@@ -2830,7 +2828,7 @@
       </c>
       <c r="H30">
         <f>SUM(B272:B281)/10</f>
-        <v>25.190999999999999</v>
+        <v>6.8489999999999993</v>
       </c>
       <c r="I30">
         <f t="shared" ref="I30:J30" si="28">SUM(C272:C281)/10</f>
@@ -2841,7 +2839,7 @@
         <v>222.35499999999996</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>299.51</v>
       </c>
@@ -2867,7 +2865,7 @@
         <v>208.429</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>286.57</v>
       </c>
@@ -2893,7 +2891,7 @@
         <v>218.86100000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>293.97000000000003</v>
       </c>
@@ -2904,7 +2902,7 @@
         <v>175.61</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>268.69</v>
       </c>
@@ -2915,7 +2913,7 @@
         <v>441.75</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>139.83000000000001</v>
       </c>
@@ -2926,7 +2924,7 @@
         <v>414.61</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>150.16</v>
       </c>
@@ -2937,7 +2935,7 @@
         <v>416.69</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>124.79</v>
       </c>
@@ -2948,7 +2946,7 @@
         <v>367.91</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>115.48</v>
       </c>
@@ -2959,7 +2957,7 @@
         <v>411.48</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>92.39</v>
       </c>
@@ -2970,7 +2968,7 @@
         <v>378.42</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>92.42</v>
       </c>
@@ -2981,7 +2979,7 @@
         <v>433.15</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>63.2</v>
       </c>
@@ -2992,7 +2990,7 @@
         <v>405.65</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>63.33</v>
       </c>
@@ -3003,7 +3001,7 @@
         <v>381.25</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>54.92</v>
       </c>
@@ -3014,7 +3012,7 @@
         <v>374.87</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>59.2</v>
       </c>
@@ -3025,7 +3023,7 @@
         <v>401.08</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>48.34</v>
       </c>
@@ -3036,7 +3034,7 @@
         <v>370.04</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>69.02</v>
       </c>
@@ -3047,7 +3045,7 @@
         <v>338.04</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>52.07</v>
       </c>
@@ -3058,7 +3056,7 @@
         <v>358.83</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>49.36</v>
       </c>
@@ -3069,7 +3067,7 @@
         <v>391.8</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>61.93</v>
       </c>
@@ -3080,7 +3078,7 @@
         <v>240.4</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>58.19</v>
       </c>
@@ -3091,7 +3089,7 @@
         <v>359.22</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>62.23</v>
       </c>
@@ -3102,7 +3100,7 @@
         <v>323.75</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>44.68</v>
       </c>
@@ -3113,7 +3111,7 @@
         <v>380.82</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>45.72</v>
       </c>
@@ -3124,7 +3122,7 @@
         <v>393.36</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>34.51</v>
       </c>
@@ -3135,7 +3133,7 @@
         <v>403.66</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>36.06</v>
       </c>
@@ -3146,7 +3144,7 @@
         <v>350.07</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>34.840000000000003</v>
       </c>
@@ -3157,7 +3155,7 @@
         <v>329.28</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>33.19</v>
       </c>
@@ -3168,7 +3166,7 @@
         <v>320.33999999999997</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>27.68</v>
       </c>
@@ -3179,7 +3177,7 @@
         <v>344.92</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>35.44</v>
       </c>
@@ -3190,7 +3188,7 @@
         <v>335.02</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>27.06</v>
       </c>
@@ -3201,7 +3199,7 @@
         <v>345.33</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>32.020000000000003</v>
       </c>
@@ -3212,7 +3210,7 @@
         <v>337.59</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>35.89</v>
       </c>
@@ -3223,7 +3221,7 @@
         <v>337.8</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>26.09</v>
       </c>
@@ -3234,7 +3232,7 @@
         <v>314.61</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>64.02</v>
       </c>
@@ -3245,7 +3243,7 @@
         <v>312.33999999999997</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>27.25</v>
       </c>
@@ -3256,7 +3254,7 @@
         <v>411.17</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>30.46</v>
       </c>
@@ -3267,7 +3265,7 @@
         <v>312.95999999999998</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>61.77</v>
       </c>
@@ -3278,7 +3276,7 @@
         <v>333.85</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>29.69</v>
       </c>
@@ -3289,7 +3287,7 @@
         <v>340.68</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>62.17</v>
       </c>
@@ -3300,7 +3298,7 @@
         <v>326.49</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>37.64</v>
       </c>
@@ -3311,7 +3309,7 @@
         <v>308.37</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>32.83</v>
       </c>
@@ -3322,7 +3320,7 @@
         <v>343.38</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>22.13</v>
       </c>
@@ -3333,7 +3331,7 @@
         <v>330.92</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>24.42</v>
       </c>
@@ -3344,7 +3342,7 @@
         <v>341.85</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>25.32</v>
       </c>
@@ -3355,7 +3353,7 @@
         <v>304.8</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>31.14</v>
       </c>
@@ -3366,7 +3364,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>23.11</v>
       </c>
@@ -3377,7 +3375,7 @@
         <v>308.81</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>63.4</v>
       </c>
@@ -3388,7 +3386,7 @@
         <v>320.69</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>24.83</v>
       </c>
@@ -3399,7 +3397,7 @@
         <v>302.76</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>20.02</v>
       </c>
@@ -3410,7 +3408,7 @@
         <v>295.45999999999998</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>23.38</v>
       </c>
@@ -3421,7 +3419,7 @@
         <v>196.7</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>26.52</v>
       </c>
@@ -3432,7 +3430,7 @@
         <v>354.57</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>17.649999999999999</v>
       </c>
@@ -3443,7 +3441,7 @@
         <v>308.31</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>19.84</v>
       </c>
@@ -3454,7 +3452,7 @@
         <v>312.89</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>18.579999999999998</v>
       </c>
@@ -3465,7 +3463,7 @@
         <v>252.99</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>25.23</v>
       </c>
@@ -3476,7 +3474,7 @@
         <v>294.82</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>25.2</v>
       </c>
@@ -3487,7 +3485,7 @@
         <v>288.48</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>20.39</v>
       </c>
@@ -3498,7 +3496,7 @@
         <v>296.56</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>44.37</v>
       </c>
@@ -3509,7 +3507,7 @@
         <v>299.92</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>31.97</v>
       </c>
@@ -3520,7 +3518,7 @@
         <v>282.64</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>20.99</v>
       </c>
@@ -3531,7 +3529,7 @@
         <v>266.47000000000003</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>25.33</v>
       </c>
@@ -3542,7 +3540,7 @@
         <v>323.02</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>8.0399999999999991</v>
       </c>
@@ -3553,7 +3551,7 @@
         <v>284.88</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>11.1</v>
       </c>
@@ -3564,7 +3562,7 @@
         <v>259.39</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>21.58</v>
       </c>
@@ -3575,7 +3573,7 @@
         <v>285.54000000000002</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>11.44</v>
       </c>
@@ -3586,7 +3584,7 @@
         <v>280.55</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>33.950000000000003</v>
       </c>
@@ -3597,7 +3595,7 @@
         <v>247.93</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>29.4</v>
       </c>
@@ -3608,7 +3606,7 @@
         <v>301.24</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>14.06</v>
       </c>
@@ -3619,7 +3617,7 @@
         <v>311.13</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>30.97</v>
       </c>
@@ -3630,7 +3628,7 @@
         <v>229.56</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>11.16</v>
       </c>
@@ -3641,7 +3639,7 @@
         <v>272.27</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>29.52</v>
       </c>
@@ -3652,7 +3650,7 @@
         <v>255.79</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>18.27</v>
       </c>
@@ -3663,7 +3661,7 @@
         <v>264.52</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B103">
         <v>24.38</v>
       </c>
@@ -3674,7 +3672,7 @@
         <v>330.5</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B104">
         <v>12.04</v>
       </c>
@@ -3685,7 +3683,7 @@
         <v>270.2</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B105">
         <v>16.11</v>
       </c>
@@ -3696,7 +3694,7 @@
         <v>284.57</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B106">
         <v>10.07</v>
       </c>
@@ -3707,7 +3705,7 @@
         <v>255.39</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B107">
         <v>8.4600000000000009</v>
       </c>
@@ -3718,7 +3716,7 @@
         <v>250.67</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B108">
         <v>12.18</v>
       </c>
@@ -3729,7 +3727,7 @@
         <v>308.66000000000003</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B109">
         <v>9.5399999999999991</v>
       </c>
@@ -3740,7 +3738,7 @@
         <v>271.14</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B110">
         <v>19.850000000000001</v>
       </c>
@@ -3751,7 +3749,7 @@
         <v>286.60000000000002</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B111">
         <v>19.29</v>
       </c>
@@ -3762,7 +3760,7 @@
         <v>268.45</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B112">
         <v>16.48</v>
       </c>
@@ -3773,7 +3771,7 @@
         <v>291.8</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B113">
         <v>12.99</v>
       </c>
@@ -3784,7 +3782,7 @@
         <v>321.27</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B114">
         <v>11.17</v>
       </c>
@@ -3795,7 +3793,7 @@
         <v>250.5</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B115">
         <v>29.81</v>
       </c>
@@ -3806,7 +3804,7 @@
         <v>251.72</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B116">
         <v>17.100000000000001</v>
       </c>
@@ -3817,7 +3815,7 @@
         <v>250.27</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B117">
         <v>34.22</v>
       </c>
@@ -3828,7 +3826,7 @@
         <v>245.41</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B118">
         <v>11.69</v>
       </c>
@@ -3839,7 +3837,7 @@
         <v>309.67</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B119">
         <v>8.66</v>
       </c>
@@ -3850,7 +3848,7 @@
         <v>271.70999999999998</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B120">
         <v>16.95</v>
       </c>
@@ -3861,7 +3859,7 @@
         <v>267.60000000000002</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B121">
         <v>11.01</v>
       </c>
@@ -3872,7 +3870,7 @@
         <v>329.39</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B122">
         <v>11.05</v>
       </c>
@@ -3883,7 +3881,7 @@
         <v>292.94</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B123">
         <v>6.92</v>
       </c>
@@ -3894,7 +3892,7 @@
         <v>309.43</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B124">
         <v>12.24</v>
       </c>
@@ -3905,7 +3903,7 @@
         <v>271.48</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B125">
         <v>68.87</v>
       </c>
@@ -3916,7 +3914,7 @@
         <v>321.33999999999997</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B126">
         <v>6.57</v>
       </c>
@@ -3927,7 +3925,7 @@
         <v>287.04000000000002</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B127">
         <v>18.25</v>
       </c>
@@ -3938,7 +3936,7 @@
         <v>285.8</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B128">
         <v>8.64</v>
       </c>
@@ -3949,7 +3947,7 @@
         <v>254.9</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B129">
         <v>6.83</v>
       </c>
@@ -3960,7 +3958,7 @@
         <v>260.39</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B130">
         <v>9.32</v>
       </c>
@@ -3971,7 +3969,7 @@
         <v>276.10000000000002</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B131">
         <v>12.47</v>
       </c>
@@ -3982,7 +3980,7 @@
         <v>277.76</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B132">
         <v>33.840000000000003</v>
       </c>
@@ -3993,7 +3991,7 @@
         <v>269.98</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B133">
         <v>6.17</v>
       </c>
@@ -4004,7 +4002,7 @@
         <v>287.2</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B134">
         <v>8.51</v>
       </c>
@@ -4015,7 +4013,7 @@
         <v>276.75</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B135">
         <v>27.68</v>
       </c>
@@ -4026,7 +4024,7 @@
         <v>215.51</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B136">
         <v>29.19</v>
       </c>
@@ -4037,7 +4035,7 @@
         <v>264.24</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B137">
         <v>7.76</v>
       </c>
@@ -4048,7 +4046,7 @@
         <v>280.73</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B138">
         <v>5.85</v>
       </c>
@@ -4059,7 +4057,7 @@
         <v>262.31</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B139">
         <v>6.72</v>
       </c>
@@ -4070,7 +4068,7 @@
         <v>261.49</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B140">
         <v>6.1</v>
       </c>
@@ -4081,7 +4079,7 @@
         <v>227.5</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B141">
         <v>5.89</v>
       </c>
@@ -4092,7 +4090,7 @@
         <v>157.71</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B142">
         <v>8.69</v>
       </c>
@@ -4103,7 +4101,7 @@
         <v>261.45999999999998</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B143">
         <v>12.43</v>
       </c>
@@ -4114,7 +4112,7 @@
         <v>243.22</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B144">
         <v>15.52</v>
       </c>
@@ -4125,7 +4123,7 @@
         <v>278.49</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B145">
         <v>12.08</v>
       </c>
@@ -4136,7 +4134,7 @@
         <v>257.55</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B146">
         <v>10.029999999999999</v>
       </c>
@@ -4147,7 +4145,7 @@
         <v>291.24</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B147">
         <v>20.29</v>
       </c>
@@ -4158,7 +4156,7 @@
         <v>272.92</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B148">
         <v>16.59</v>
       </c>
@@ -4169,7 +4167,7 @@
         <v>270.20999999999998</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B149">
         <v>7.14</v>
       </c>
@@ -4180,7 +4178,7 @@
         <v>262.67</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B150">
         <v>7.01</v>
       </c>
@@ -4191,7 +4189,7 @@
         <v>237.42</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B151">
         <v>6.25</v>
       </c>
@@ -4202,7 +4200,7 @@
         <v>251.77</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B152">
         <v>5.57</v>
       </c>
@@ -4213,7 +4211,7 @@
         <v>249.49</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B153">
         <v>6.27</v>
       </c>
@@ -4224,7 +4222,7 @@
         <v>328.5</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B154">
         <v>4.47</v>
       </c>
@@ -4235,7 +4233,7 @@
         <v>244.96</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B155">
         <v>8.34</v>
       </c>
@@ -4246,7 +4244,7 @@
         <v>247.95</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B156">
         <v>14.23</v>
       </c>
@@ -4257,7 +4255,7 @@
         <v>319.57</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B157">
         <v>8.0399999999999991</v>
       </c>
@@ -4268,7 +4266,7 @@
         <v>305.33</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B158">
         <v>4.1399999999999997</v>
       </c>
@@ -4279,7 +4277,7 @@
         <v>247.74</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B159">
         <v>6.41</v>
       </c>
@@ -4290,7 +4288,7 @@
         <v>221.93</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B160">
         <v>8.11</v>
       </c>
@@ -4301,7 +4299,7 @@
         <v>228.49</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B161">
         <v>3.91</v>
       </c>
@@ -4312,7 +4310,7 @@
         <v>254.78</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B162">
         <v>9.02</v>
       </c>
@@ -4323,7 +4321,7 @@
         <v>257.43</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B163">
         <v>3.96</v>
       </c>
@@ -4334,7 +4332,7 @@
         <v>270.61</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B164">
         <v>6.18</v>
       </c>
@@ -4345,7 +4343,7 @@
         <v>244.85</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B165">
         <v>6.04</v>
       </c>
@@ -4356,7 +4354,7 @@
         <v>262.39999999999998</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B166">
         <v>5.05</v>
       </c>
@@ -4367,7 +4365,7 @@
         <v>245.44</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B167">
         <v>13.11</v>
       </c>
@@ -4378,7 +4376,7 @@
         <v>269.25</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B168">
         <v>10.6</v>
       </c>
@@ -4389,7 +4387,7 @@
         <v>259.36</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B169">
         <v>10.23</v>
       </c>
@@ -4400,7 +4398,7 @@
         <v>290.14</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B170">
         <v>8.36</v>
       </c>
@@ -4411,7 +4409,7 @@
         <v>273.18</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B171">
         <v>6</v>
       </c>
@@ -4422,7 +4420,7 @@
         <v>260.89999999999998</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B172">
         <v>114.7</v>
       </c>
@@ -4433,7 +4431,7 @@
         <v>229.12</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B173">
         <v>4.66</v>
       </c>
@@ -4444,7 +4442,7 @@
         <v>272.86</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B174">
         <v>5.72</v>
       </c>
@@ -4455,7 +4453,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B175">
         <v>6.09</v>
       </c>
@@ -4466,7 +4464,7 @@
         <v>238.25</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B176">
         <v>11.29</v>
       </c>
@@ -4477,7 +4475,7 @@
         <v>273.14</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B177">
         <v>5.52</v>
       </c>
@@ -4488,7 +4486,7 @@
         <v>212.48</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B178">
         <v>5.61</v>
       </c>
@@ -4499,7 +4497,7 @@
         <v>194.54</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B179">
         <v>8.41</v>
       </c>
@@ -4510,7 +4508,7 @@
         <v>247.81</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B180">
         <v>15.33</v>
       </c>
@@ -4521,7 +4519,7 @@
         <v>240.42</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B181">
         <v>3.65</v>
       </c>
@@ -4532,7 +4530,7 @@
         <v>233.23</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B182">
         <v>4.91</v>
       </c>
@@ -4543,7 +4541,7 @@
         <v>260.25</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B183">
         <v>7.81</v>
       </c>
@@ -4554,7 +4552,7 @@
         <v>255.17</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B184">
         <v>5.0599999999999996</v>
       </c>
@@ -4565,7 +4563,7 @@
         <v>286.66000000000003</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B185">
         <v>4.51</v>
       </c>
@@ -4576,7 +4574,7 @@
         <v>243.11</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B186">
         <v>8.69</v>
       </c>
@@ -4587,7 +4585,7 @@
         <v>223.94</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B187">
         <v>14.88</v>
       </c>
@@ -4598,7 +4596,7 @@
         <v>271.77</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B188">
         <v>5.52</v>
       </c>
@@ -4609,7 +4607,7 @@
         <v>265.39</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B189">
         <v>4.07</v>
       </c>
@@ -4620,7 +4618,7 @@
         <v>222.93</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B190">
         <v>19.940000000000001</v>
       </c>
@@ -4631,7 +4629,7 @@
         <v>267.61</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B191">
         <v>5.62</v>
       </c>
@@ -4642,7 +4640,7 @@
         <v>222.25</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B192">
         <v>3.81</v>
       </c>
@@ -4653,7 +4651,7 @@
         <v>239.65</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B193">
         <v>6.15</v>
       </c>
@@ -4664,7 +4662,7 @@
         <v>239.46</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B194">
         <v>5.54</v>
       </c>
@@ -4675,7 +4673,7 @@
         <v>262.54000000000002</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B195">
         <v>5.34</v>
       </c>
@@ -4686,7 +4684,7 @@
         <v>235.73</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B196">
         <v>4.46</v>
       </c>
@@ -4697,7 +4695,7 @@
         <v>314.86</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B197">
         <v>1.75</v>
       </c>
@@ -4708,7 +4706,7 @@
         <v>242.87</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B198">
         <v>4.0999999999999996</v>
       </c>
@@ -4719,7 +4717,7 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B199">
         <v>4.66</v>
       </c>
@@ -4730,7 +4728,7 @@
         <v>239.35</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B200">
         <v>4.59</v>
       </c>
@@ -4741,7 +4739,7 @@
         <v>258.69</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B201">
         <v>2.69</v>
       </c>
@@ -4752,7 +4750,7 @@
         <v>257.92</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B202">
         <v>4.3499999999999996</v>
       </c>
@@ -4763,7 +4761,7 @@
         <v>236.94</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B203">
         <v>3.1</v>
       </c>
@@ -4774,7 +4772,7 @@
         <v>305.45</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B204">
         <v>5.69</v>
       </c>
@@ -4785,7 +4783,7 @@
         <v>230.6</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B205">
         <v>4.71</v>
       </c>
@@ -4796,7 +4794,7 @@
         <v>235.7</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B206">
         <v>2.37</v>
       </c>
@@ -4807,7 +4805,7 @@
         <v>287.42</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B207">
         <v>17.670000000000002</v>
       </c>
@@ -4818,7 +4816,7 @@
         <v>168.18</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B208">
         <v>2.17</v>
       </c>
@@ -4829,7 +4827,7 @@
         <v>201.79</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B209">
         <v>7.87</v>
       </c>
@@ -4840,7 +4838,7 @@
         <v>241.27</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B210">
         <v>5.2</v>
       </c>
@@ -4851,7 +4849,7 @@
         <v>279.32</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B211">
         <v>7.39</v>
       </c>
@@ -4862,7 +4860,7 @@
         <v>235.03</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B212">
         <v>5.25</v>
       </c>
@@ -4873,7 +4871,7 @@
         <v>261.64999999999998</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B213">
         <v>7.6</v>
       </c>
@@ -4884,7 +4882,7 @@
         <v>227.56</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B214">
         <v>6.12</v>
       </c>
@@ -4895,7 +4893,7 @@
         <v>252.07</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B215">
         <v>3.61</v>
       </c>
@@ -4906,7 +4904,7 @@
         <v>267.33999999999997</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B216">
         <v>4.53</v>
       </c>
@@ -4917,7 +4915,7 @@
         <v>249.35</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B217">
         <v>2.52</v>
       </c>
@@ -4928,7 +4926,7 @@
         <v>245.06</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B218">
         <v>13.84</v>
       </c>
@@ -4939,7 +4937,7 @@
         <v>179.77</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B219">
         <v>7.62</v>
       </c>
@@ -4950,7 +4948,7 @@
         <v>256.86</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B220">
         <v>3.99</v>
       </c>
@@ -4961,7 +4959,7 @@
         <v>237.16</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B221">
         <v>2.78</v>
       </c>
@@ -4972,7 +4970,7 @@
         <v>258.04000000000002</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B222">
         <v>6.41</v>
       </c>
@@ -4983,7 +4981,7 @@
         <v>241.41</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B223">
         <v>10.71</v>
       </c>
@@ -4994,7 +4992,7 @@
         <v>242.2</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B224">
         <v>3.76</v>
       </c>
@@ -5005,7 +5003,7 @@
         <v>229.92</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B225">
         <v>3.55</v>
       </c>
@@ -5016,7 +5014,7 @@
         <v>249.79</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B226">
         <v>4.13</v>
       </c>
@@ -5027,7 +5025,7 @@
         <v>229.97</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B227">
         <v>3.9</v>
       </c>
@@ -5038,7 +5036,7 @@
         <v>188.26</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B228">
         <v>5.29</v>
       </c>
@@ -5049,7 +5047,7 @@
         <v>213.99</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B229">
         <v>7.71</v>
       </c>
@@ -5060,9 +5058,9 @@
         <v>246.2</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B230">
-        <v>615.32000000000005</v>
+        <v>30</v>
       </c>
       <c r="C230">
         <v>240.22</v>
@@ -5071,7 +5069,7 @@
         <v>248.24</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B231">
         <v>4.45</v>
       </c>
@@ -5082,7 +5080,7 @@
         <v>229.65</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B232">
         <v>3.15</v>
       </c>
@@ -5093,7 +5091,7 @@
         <v>228.69</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B233">
         <v>7.04</v>
       </c>
@@ -5104,7 +5102,7 @@
         <v>232.01</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B234">
         <v>7.83</v>
       </c>
@@ -5115,7 +5113,7 @@
         <v>241.17</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B235">
         <v>3.35</v>
       </c>
@@ -5126,7 +5124,7 @@
         <v>237.01</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B236">
         <v>3.42</v>
       </c>
@@ -5137,7 +5135,7 @@
         <v>237.3</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B237">
         <v>9.2200000000000006</v>
       </c>
@@ -5148,7 +5146,7 @@
         <v>233.28</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B238">
         <v>4.75</v>
       </c>
@@ -5159,7 +5157,7 @@
         <v>232.76</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B239">
         <v>5.26</v>
       </c>
@@ -5170,7 +5168,7 @@
         <v>209.36</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B240">
         <v>3.27</v>
       </c>
@@ -5181,7 +5179,7 @@
         <v>246.13</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B241">
         <v>5.92</v>
       </c>
@@ -5192,7 +5190,7 @@
         <v>202.64</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B242">
         <v>2.16</v>
       </c>
@@ -5203,7 +5201,7 @@
         <v>275.55</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B243">
         <v>5.9</v>
       </c>
@@ -5214,7 +5212,7 @@
         <v>225.77</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B244">
         <v>5.93</v>
       </c>
@@ -5225,7 +5223,7 @@
         <v>236.88</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B245">
         <v>3.23</v>
       </c>
@@ -5236,7 +5234,7 @@
         <v>237.67</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B246">
         <v>3.99</v>
       </c>
@@ -5247,7 +5245,7 @@
         <v>241.3</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B247">
         <v>3.75</v>
       </c>
@@ -5258,7 +5256,7 @@
         <v>259.22000000000003</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B248">
         <v>4.4000000000000004</v>
       </c>
@@ -5269,7 +5267,7 @@
         <v>225.96</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B249">
         <v>4.33</v>
       </c>
@@ -5280,7 +5278,7 @@
         <v>239.83</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B250">
         <v>3.78</v>
       </c>
@@ -5291,7 +5289,7 @@
         <v>231.62</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B251">
         <v>4.96</v>
       </c>
@@ -5302,7 +5300,7 @@
         <v>231.64</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B252">
         <v>13.85</v>
       </c>
@@ -5313,7 +5311,7 @@
         <v>241.59</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B253">
         <v>4.6500000000000004</v>
       </c>
@@ -5324,7 +5322,7 @@
         <v>239.19</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B254">
         <v>3.76</v>
       </c>
@@ -5335,7 +5333,7 @@
         <v>214.81</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B255">
         <v>7.56</v>
       </c>
@@ -5346,7 +5344,7 @@
         <v>235.06</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B256">
         <v>3.05</v>
       </c>
@@ -5357,7 +5355,7 @@
         <v>223.74</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B257">
         <v>3.83</v>
       </c>
@@ -5368,7 +5366,7 @@
         <v>223.52</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B258">
         <v>3.48</v>
       </c>
@@ -5379,7 +5377,7 @@
         <v>223.76</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B259">
         <v>2.56</v>
       </c>
@@ -5390,7 +5388,7 @@
         <v>242.81</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B260">
         <v>5.65</v>
       </c>
@@ -5401,9 +5399,9 @@
         <v>248.47</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B261">
-        <v>213.15</v>
+        <v>20</v>
       </c>
       <c r="C261">
         <v>173.82</v>
@@ -5412,7 +5410,7 @@
         <v>242.25</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B262">
         <v>10.050000000000001</v>
       </c>
@@ -5423,7 +5421,7 @@
         <v>222.78</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B263">
         <v>5.61</v>
       </c>
@@ -5434,7 +5432,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B264">
         <v>6.16</v>
       </c>
@@ -5445,7 +5443,7 @@
         <v>218.07</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B265">
         <v>7.87</v>
       </c>
@@ -5456,7 +5454,7 @@
         <v>204.88</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B266">
         <v>4.96</v>
       </c>
@@ -5467,7 +5465,7 @@
         <v>209.35</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B267">
         <v>5.08</v>
       </c>
@@ -5478,7 +5476,7 @@
         <v>208.71</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B268">
         <v>6.41</v>
       </c>
@@ -5489,7 +5487,7 @@
         <v>208.03</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B269">
         <v>4.72</v>
       </c>
@@ -5500,7 +5498,7 @@
         <v>248.07</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B270">
         <v>3.26</v>
       </c>
@@ -5511,7 +5509,7 @@
         <v>205.7</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B271">
         <v>2.4500000000000002</v>
       </c>
@@ -5522,7 +5520,7 @@
         <v>204.95</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B272">
         <v>6.54</v>
       </c>
@@ -5533,7 +5531,7 @@
         <v>277.33</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B273">
         <v>3.36</v>
       </c>
@@ -5544,7 +5542,7 @@
         <v>203.52</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B274">
         <v>8.5399999999999991</v>
       </c>
@@ -5555,7 +5553,7 @@
         <v>240.87</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B275">
         <v>2.85</v>
       </c>
@@ -5566,9 +5564,9 @@
         <v>154.31</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B276">
-        <v>203.42</v>
+        <v>20</v>
       </c>
       <c r="C276">
         <v>236.97</v>
@@ -5577,7 +5575,7 @@
         <v>258.63</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B277">
         <v>4.46</v>
       </c>
@@ -5588,7 +5586,7 @@
         <v>225.26</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B278">
         <v>5.59</v>
       </c>
@@ -5599,7 +5597,7 @@
         <v>216.68</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B279">
         <v>6.91</v>
       </c>
@@ -5610,7 +5608,7 @@
         <v>203.87</v>
       </c>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B280">
         <v>7.22</v>
       </c>
@@ -5621,7 +5619,7 @@
         <v>217.75</v>
       </c>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B281">
         <v>3.02</v>
       </c>
@@ -5632,7 +5630,7 @@
         <v>225.33</v>
       </c>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B282">
         <v>9.2200000000000006</v>
       </c>
@@ -5643,7 +5641,7 @@
         <v>221.01</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B283">
         <v>2.31</v>
       </c>
@@ -5654,7 +5652,7 @@
         <v>177.85</v>
       </c>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B284">
         <v>2.73</v>
       </c>
@@ -5665,7 +5663,7 @@
         <v>189.64</v>
       </c>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B285">
         <v>4.29</v>
       </c>
@@ -5676,7 +5674,7 @@
         <v>282.36</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B286">
         <v>3.27</v>
       </c>
@@ -5687,7 +5685,7 @@
         <v>229.29</v>
       </c>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B287">
         <v>3.28</v>
       </c>
@@ -5698,7 +5696,7 @@
         <v>208.6</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B288">
         <v>3.91</v>
       </c>
@@ -5709,7 +5707,7 @@
         <v>218.98</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B289">
         <v>2.4700000000000002</v>
       </c>
@@ -5720,7 +5718,7 @@
         <v>205.45</v>
       </c>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B290">
         <v>2.21</v>
       </c>
@@ -5731,7 +5729,7 @@
         <v>191.88</v>
       </c>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B291">
         <v>4.8099999999999996</v>
       </c>
@@ -5742,7 +5740,7 @@
         <v>159.22999999999999</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B292">
         <v>3.58</v>
       </c>
@@ -5753,7 +5751,7 @@
         <v>240.67</v>
       </c>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B293">
         <v>2.65</v>
       </c>
@@ -5764,7 +5762,7 @@
         <v>255.63</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B294">
         <v>7.78</v>
       </c>
@@ -5775,7 +5773,7 @@
         <v>267.39999999999998</v>
       </c>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B295">
         <v>3.37</v>
       </c>
@@ -5786,7 +5784,7 @@
         <v>220.32</v>
       </c>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B296">
         <v>3.13</v>
       </c>
@@ -5797,7 +5795,7 @@
         <v>206.93</v>
       </c>
     </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B297">
         <v>3.22</v>
       </c>
@@ -5808,7 +5806,7 @@
         <v>174.86</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B298">
         <v>6.11</v>
       </c>
@@ -5819,7 +5817,7 @@
         <v>224.45</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B299">
         <v>3.69</v>
       </c>
@@ -5830,7 +5828,7 @@
         <v>197.9</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B300">
         <v>4.04</v>
       </c>
@@ -5841,7 +5839,7 @@
         <v>203.24</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B301">
         <v>5.09</v>
       </c>
